--- a/TABULAR/PS4E6/ps4e6_experiments.xlsx
+++ b/TABULAR/PS4E6/ps4e6_experiments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bk_anupam\code\ML\KaggleChallenges\TABULAR\PS4E6\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bk_anupam\code\ML\KaggleChallenges\TABULAR\PS4E6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
   <si>
     <t>Fold 0</t>
   </si>
@@ -117,9 +117,6 @@
     <t>2 rounds</t>
   </si>
   <si>
-    <t>Dataset with top 50 features generated by openfe, of these 50 only non null features are taken. Feature selection with top 60 of total 68 features based on feature importances given by previous row catboost model</t>
-  </si>
-  <si>
     <t>25 rounds</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Ensemble of CatBoost1, CatBoost2, XGBoost1, RandomForest1, LogisticRegression1</t>
   </si>
   <si>
-    <t>LightGBM</t>
-  </si>
-  <si>
     <t>params = {'learning_rate': 0.12079237406906834, 'n_estimators': 1600, 'max_depth': 4, 'min_child_weight': 7, 'subsample': 0.8586720764925466, 'colsample_bytree': 0.5962542688745494, 'num_leaves': 228, 'reg_alpha': 0.5737569015209647, 'reg_lambda': 152.9235687135424, 'early_stopping_rounds': 310}</t>
   </si>
   <si>
@@ -211,6 +205,42 @@
   </si>
   <si>
     <t>model weights ['CatBoost1', 'CatBoost2', 'XGBoost1', 'LightGBM1', 'RandomForest1', 'LogisticRegression1'] = [0.17011039 0.16682883 0.16694316 0.17881929 0.14797344 0.16932489]</t>
+  </si>
+  <si>
+    <t>Ensemble5</t>
+  </si>
+  <si>
+    <t>Ensemble of CatBoost1, CatBoost2, XGBoost1, LightGBM1</t>
+  </si>
+  <si>
+    <t>model weights ['CatBoost1', 'CatBoost2', 'XGBoost1', 'LightGBM1] = [0.25107259 0.24261474 0.22393024 0.28238244]</t>
+  </si>
+  <si>
+    <t>LightGBM1</t>
+  </si>
+  <si>
+    <t>LightGBM2</t>
+  </si>
+  <si>
+    <t>Ensemble6</t>
+  </si>
+  <si>
+    <t>Ensemble of CatBoost1, CatBoost2, XGBoost1, LightGBM1, LightGBM2</t>
+  </si>
+  <si>
+    <t>model weights ['CatBoost1', 'CatBoost2', 'XGBoost1', 'LightGBM1', 'LightGBM2'] = [0.19318781 0.20341742 0.18819339 0.20806017 0.20714121]</t>
+  </si>
+  <si>
+    <t>params = {'learning_rate': 0.050431114227825063, 'n_estimators': 1500, 'max_depth': 6, 'min_data_in_leaf': 92, 'min_child_weight': 6, 'num_leaves': 428, 'reg_lambda': 130.60718838770154, 'early_stopping_rounds': 365, 'subsample': 0.8586720764925466, 'colsample_bytree': 0.5962542688745494, 'reg_alpha': 0.5737569015209647}</t>
+  </si>
+  <si>
+    <t>LightGBM3</t>
+  </si>
+  <si>
+    <t>Dataset with top 50 features generated by openfe, of these 50 only non null features are taken. Backward feature selection that eliminates last three features by importance</t>
+  </si>
+  <si>
+    <t>Dataset with top 50 features generated by openfe, of these 50 only non null features are taken. Feature selection with top 60 of total 68 features based on feature importances given by CatBoost1</t>
   </si>
 </sst>
 </file>
@@ -531,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -689,7 +719,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>0.830934585212181</v>
@@ -704,7 +734,7 @@
         <v>0.78794660632113001</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -713,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
@@ -874,7 +904,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>0.82963740811662201</v>
@@ -949,7 +979,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>0.83291123602446104</v>
@@ -981,7 +1011,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>0.832725925010809</v>
@@ -1008,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
@@ -1025,7 +1055,7 @@
         <v>0.83640000000000003</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
@@ -1034,15 +1064,15 @@
         <v>20</v>
       </c>
       <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
         <v>31</v>
-      </c>
-      <c r="K20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>0.83445549447155398</v>
@@ -1057,7 +1087,7 @@
         <v>0.79292560456805405</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
@@ -1066,15 +1096,15 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
         <v>31</v>
-      </c>
-      <c r="K21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>0.83211999999999997</v>
@@ -1086,15 +1116,15 @@
         <v>0.79408000602976703</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>0.83132366385807099</v>
@@ -1106,15 +1136,15 @@
         <v>0.79313720609911198</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>0.83174371772380196</v>
@@ -1126,15 +1156,15 @@
         <v>0.79359549766121196</v>
       </c>
       <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s">
         <v>55</v>
-      </c>
-      <c r="K24" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <v>0.83760578170362499</v>
@@ -1149,7 +1179,7 @@
         <v>0.79611936430462404</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -1158,27 +1188,131 @@
         <v>20</v>
       </c>
       <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
         <v>31</v>
-      </c>
-      <c r="K25" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>0.837235159676323</v>
+      </c>
+      <c r="D26">
+        <v>0.83318919720293505</v>
+      </c>
+      <c r="E26">
+        <v>0.83748</v>
+      </c>
+      <c r="F26">
+        <v>0.79565407784574405</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27">
+        <v>0.837235159676323</v>
+      </c>
+      <c r="D27">
+        <v>0.83355983296681502</v>
+      </c>
+      <c r="E27">
+        <v>0.83777000000000001</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>0.83236144399693601</v>
+      </c>
+      <c r="E28">
+        <v>0.83601000000000003</v>
+      </c>
+      <c r="F28">
+        <v>0.79445779037648701</v>
+      </c>
+      <c r="G28" t="s">
         <v>59</v>
       </c>
-      <c r="D26">
-        <v>0.83236144399693601</v>
-      </c>
-      <c r="F26">
-        <v>0.79445779037648701</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="K28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>0.83299152479553196</v>
+      </c>
+      <c r="E29">
+        <v>0.83699000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.79522718564553896</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" t="s">
         <v>61</v>
       </c>
-      <c r="K26" t="s">
-        <v>60</v>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>0.83296681574460696</v>
+      </c>
+      <c r="E30">
+        <v>0.83796999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.79517966768981296</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1205,18 +1339,18 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <f>3634+1339</f>
@@ -1237,7 +1371,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <f>2635+1797</f>
@@ -1258,7 +1392,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>26717</v>

--- a/TABULAR/PS4E6/ps4e6_experiments.xlsx
+++ b/TABULAR/PS4E6/ps4e6_experiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
   <si>
     <t>Fold 0</t>
   </si>
@@ -241,6 +241,31 @@
   </si>
   <si>
     <t>Dataset with top 50 features generated by openfe, of these 50 only non null features are taken. Feature selection with top 60 of total 68 features based on feature importances given by CatBoost1</t>
+  </si>
+  <si>
+    <t>Ensemble7</t>
+  </si>
+  <si>
+    <t>Ensemble of CatBoost1, CatBoost2, XGBoost1, LightGBM1, LightGBM2, LightGBM3</t>
+  </si>
+  <si>
+    <t>model weights ['CatBoost1', 'CatBoost2', 'XGBoost1', 'LightGBM1', 'LightGBM2', 'LightGBM3'] = [0.15528419 0.17088215 0.18539052 0.1673259  0.15622128 0.16489596]</t>
+  </si>
+  <si>
+    <t>Ensemble8</t>
+  </si>
+  <si>
+    <t>Hard Voting Ensemble of CatBoost1, CatBoost2, XGBoost1, LightGBM1, LightGBM2, LightGBM3, RandomForest1, LogisticRegression1</t>
+  </si>
+  <si>
+    <t>VotingEnsemble8</t>
+  </si>
+  <si>
+    <t>Ensemble of CatBoost1, CatBoost2, XGBoost1, LightGBM1, LightGBM2, LightGBM3, RandomForest1, LogisticRegression1</t>
+  </si>
+  <si>
+    <t>model weights ['CatBoost1', 'CatBoost2', 'XGBoost1', 'LightGBM1', 'LightGBM2', 'LightGBM3', 'RandomForest1', 'LogisticRegression1']= [0.12420229 0.12393644 0.12479933 0.12312732 0.12356161 0.12382384
+ 0.12461949 0.13192968]</t>
   </si>
 </sst>
 </file>
@@ -561,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K30"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,6 +1338,60 @@
       </c>
       <c r="K30" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>0.83316448815201005</v>
+      </c>
+      <c r="F31">
+        <v>0.79548937509058804</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>0.83347335128857702</v>
+      </c>
+      <c r="E32">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F32">
+        <v>0.79606784825514099</v>
+      </c>
+      <c r="K32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>0.83263324355711499</v>
+      </c>
+      <c r="E33">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F33">
+        <v>0.79485263841002196</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/TABULAR/PS4E6/ps4e6_experiments.xlsx
+++ b/TABULAR/PS4E6/ps4e6_experiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
   <si>
     <t>Fold 0</t>
   </si>
@@ -126,22 +126,7 @@
     <t>params = {'learning_rate': 0.04539322092724283, 'n_estimators': 4750, 'max_depth': 15, 'min_data_in_leaf': 79, 'colsample_bylevel': 0.9011279645678063, 'num_leaves': 256, 'reg_lambda': 99.84844905552647, 'random_strength': 0.136081594704567, 'early_stopping_rounds': 490, 'max_bin': 43}</t>
   </si>
   <si>
-    <t>Dropout</t>
-  </si>
-  <si>
-    <t>Enrolled</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Incorrect (with class weights)</t>
-  </si>
-  <si>
-    <t>Incorrect (without class weights)</t>
+    <t>XGBoost</t>
   </si>
   <si>
     <t>params = {'n_estimators': 1400, 'learning_rate': 0.10270166896064774, 'max_depth': 30, 'min_child_weight': 7, 'gamma': 4.123490349502186, 'subsample': 0.5067185283456936, 'colsample_bytree': 0.7289930512882908, 'reg_alpha': 0.5971832077526927, 'reg_lambda': 9.433125479981229, 'early_stopping_rounds': 260}</t>
@@ -195,6 +180,9 @@
     <t>Ensemble of CatBoost1, CatBoost2, XGBoost1, RandomForest1, LogisticRegression1</t>
   </si>
   <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
     <t>params = {'learning_rate': 0.12079237406906834, 'n_estimators': 1600, 'max_depth': 4, 'min_child_weight': 7, 'subsample': 0.8586720764925466, 'colsample_bytree': 0.5962542688745494, 'num_leaves': 228, 'reg_alpha': 0.5737569015209647, 'reg_lambda': 152.9235687135424, 'early_stopping_rounds': 310}</t>
   </si>
   <si>
@@ -256,6 +244,9 @@
   </si>
   <si>
     <t>Hard Voting Ensemble of CatBoost1, CatBoost2, XGBoost1, LightGBM1, LightGBM2, LightGBM3, RandomForest1, LogisticRegression1</t>
+  </si>
+  <si>
+    <t>Ensemble9</t>
   </si>
   <si>
     <t>VotingEnsemble8</t>
@@ -266,6 +257,66 @@
   <si>
     <t>model weights ['CatBoost1', 'CatBoost2', 'XGBoost1', 'LightGBM1', 'LightGBM2', 'LightGBM3', 'RandomForest1', 'LogisticRegression1']= [0.12420229 0.12393644 0.12479933 0.12312732 0.12356161 0.12382384
  0.12461949 0.13192968]</t>
+  </si>
+  <si>
+    <t>Fold 0 accuracy</t>
+  </si>
+  <si>
+    <t>CV accuracy</t>
+  </si>
+  <si>
+    <t>CV F1</t>
+  </si>
+  <si>
+    <t>Float features</t>
+  </si>
+  <si>
+    <t>['Previous_qualification_grade',
+ 'Admission_grade',
+ 'Curricular_units_1st_sem_grade',
+ 'Curricular_units_2nd_sem_grade',
+ 'Unemployment_rate',
+ 'Inflation_rate',
+ 'GDP']</t>
+  </si>
+  <si>
+    <t>Int features</t>
+  </si>
+  <si>
+    <t>Cat features</t>
+  </si>
+  <si>
+    <t>['Marital_status', 'Application_mode', 'Application_order', 'Course', 'Daytime/evening_attendance', 'Previous_qualification', 'Nacionality', 'Mothers_qualification', 'Fathers_qualification', 'Mothers_occupation', 'Fathers_occupation', 'Displaced', 'Educational_special_needs', 'Debtor', 'Tuition_fees_up_to_date', 'Gender', 'Scholarship_holder', 'Age_at_enrollment', 'International', 'Curricular_units_1st_sem_credited', 'Curricular_units_1st_sem_enrolled', 'Curricular_units_1st_sem_evaluations', 'Curricular_units_1st_sem_approved', 'Curricular_units_1st_sem_without_evaluations', 'Curricular_units_2nd_sem_credited', 'Curricular_units_2nd_sem_enrolled', 'Curricular_units_2nd_sem_evaluations', 'Curricular_units_2nd_sem_approved', 'Curricular_units_2nd_sem_without_evaluations']</t>
+  </si>
+  <si>
+    <t>Fold 0 F1</t>
+  </si>
+  <si>
+    <t>params = {'objective': 'multi:softprob', 'eval_metric': 'merror', 'n_estimators': 2025, 'learning_rate': 0.040626744341037524, 'max_depth': 43, 'min_child_weight': 12, 'gamma': 0.9435435444274081, 'reg_lambda': 9.16500182381991, 'subsample': 0.5067, 'early_stopping_rounds': 260, 'reg_alpha': 0.59718, 'colsample_bytree': 0.7289930512882908}</t>
+  </si>
+  <si>
+    <t>Dataset with top 50 features generated by openfe, of these 50 only non null features are taken. Level 2 tuning of parameters</t>
+  </si>
+  <si>
+    <t>XGBoost2</t>
+  </si>
+  <si>
+    <t>Ensemble of CatBoost1, CatBoost2, XGBoost1, XGBoost2, LightGBM1, LightGBM2, LightGBM3, RandomForest1, LogisticRegression1</t>
+  </si>
+  <si>
+    <t>model_weights CatBoost1, CatBoost2, XGBoost1, XGBoost2, LightGBM1, LightGBM2, LightGBM3, RandomForest1, LogisticRegression1= [0.1044435  0.11283369 0.11349727 0.1070162  0.11394063 0.1136667 0.11286249 0.10803125 0.11370828]</t>
+  </si>
+  <si>
+    <t>Ensemble10</t>
+  </si>
+  <si>
+    <t>VotingEnsemble9</t>
+  </si>
+  <si>
+    <t>Hard Voting Ensemble of CatBoost1, CatBoost2, XGBoost1,XGBoost1, LightGBM1, LightGBM2, LightGBM3, RandomForest1, LogisticRegression1</t>
+  </si>
+  <si>
+    <t>Model Weights: [0.11420956 0.13582489 0.16041473 0.15125451 0.13361867 0.16174815 0.14292949]</t>
   </si>
 </sst>
 </file>
@@ -301,11 +352,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,16 +638,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K33"/>
+  <dimension ref="A2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="5" max="6" width="9.7265625" customWidth="1"/>
@@ -621,7 +673,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -744,7 +796,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>0.830934585212181</v>
@@ -759,7 +811,7 @@
         <v>0.78794660632113001</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -929,7 +981,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>0.82963740811662201</v>
@@ -1004,7 +1056,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>0.83291123602446104</v>
@@ -1036,7 +1088,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>0.832725925010809</v>
@@ -1063,7 +1115,7 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
@@ -1097,7 +1149,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>0.83445549447155398</v>
@@ -1112,7 +1164,7 @@
         <v>0.79292560456805405</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
@@ -1129,114 +1181,114 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>45</v>
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>0.83519673852615905</v>
       </c>
       <c r="D22">
-        <v>0.83211999999999997</v>
+        <v>0.83181784487657795</v>
       </c>
       <c r="E22">
-        <v>0.83630000000000004</v>
+        <v>0.83443999999999996</v>
       </c>
       <c r="F22">
-        <v>0.79408000602976703</v>
+        <v>0.79389288780405798</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>0.83132366385807099</v>
+        <v>0.83211999999999997</v>
       </c>
       <c r="E23">
-        <v>0.83728000000000002</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="F23">
-        <v>0.79313720609911198</v>
+        <v>0.79408000602976703</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>0.83174371772380196</v>
+        <v>0.83132366385807099</v>
       </c>
       <c r="E24">
-        <v>0.83562000000000003</v>
+        <v>0.83728000000000002</v>
       </c>
       <c r="F24">
-        <v>0.79359549766121196</v>
+        <v>0.79313720609911198</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25">
-        <v>0.83760578170362499</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>0.83355983296681502</v>
+        <v>0.83174371772380196</v>
       </c>
       <c r="E25">
-        <v>0.83689000000000002</v>
+        <v>0.83562000000000003</v>
       </c>
       <c r="F25">
-        <v>0.79611936430462404</v>
+        <v>0.79359549766121196</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C26">
-        <v>0.837235159676323</v>
+        <v>0.83760578170362499</v>
       </c>
       <c r="D26">
-        <v>0.83318919720293505</v>
+        <v>0.83355983296681502</v>
       </c>
       <c r="E26">
-        <v>0.83748</v>
+        <v>0.83689000000000002</v>
       </c>
       <c r="F26">
-        <v>0.79565407784574405</v>
+        <v>0.79611936430462404</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
         <v>8</v>
@@ -1253,19 +1305,22 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.837235159676323</v>
       </c>
       <c r="D27">
-        <v>0.83355983296681502</v>
+        <v>0.83318919720293505</v>
       </c>
       <c r="E27">
-        <v>0.83777000000000001</v>
+        <v>0.83748</v>
+      </c>
+      <c r="F27">
+        <v>0.79565407784574405</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
         <v>8</v>
@@ -1277,121 +1332,201 @@
         <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>0.837235159676323</v>
       </c>
       <c r="D28">
-        <v>0.83236144399693601</v>
+        <v>0.83355983296681502</v>
       </c>
       <c r="E28">
-        <v>0.83601000000000003</v>
-      </c>
-      <c r="F28">
-        <v>0.79445779037648701</v>
+        <v>0.83777000000000001</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D29">
-        <v>0.83299152479553196</v>
+        <v>0.83236144399693601</v>
       </c>
       <c r="E29">
-        <v>0.83699000000000001</v>
+        <v>0.83601000000000003</v>
       </c>
       <c r="F29">
-        <v>0.79522718564553896</v>
+        <v>0.79445779037648701</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>0.83296681574460696</v>
+        <v>0.83299152479553196</v>
       </c>
       <c r="E30">
-        <v>0.83796999999999999</v>
+        <v>0.83699000000000001</v>
       </c>
       <c r="F30">
-        <v>0.79517966768981296</v>
+        <v>0.79522718564553896</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D31">
-        <v>0.83316448815201005</v>
+        <v>0.83296681574460696</v>
+      </c>
+      <c r="E31">
+        <v>0.83796999999999999</v>
       </c>
       <c r="F31">
-        <v>0.79548937509058804</v>
+        <v>0.79517966768981296</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>0.83347335128857702</v>
-      </c>
-      <c r="E32">
-        <v>0.83650000000000002</v>
+        <v>0.83316448815201005</v>
       </c>
       <c r="F32">
-        <v>0.79606784825514099</v>
+        <v>0.79548937509058804</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
       </c>
       <c r="K32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33">
-        <v>0.83263324355711499</v>
+        <v>0.83347335128857702</v>
       </c>
       <c r="E33">
         <v>0.83650000000000002</v>
       </c>
       <c r="F33">
+        <v>0.79606784825514099</v>
+      </c>
+      <c r="K33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>0.83263324355711499</v>
+      </c>
+      <c r="E34">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F34">
         <v>0.79485263841002196</v>
       </c>
-      <c r="G33" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" t="s">
-        <v>78</v>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35">
+        <v>0.83276914333720398</v>
+      </c>
+      <c r="E35">
+        <v>0.83757999999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.79505337848917901</v>
+      </c>
+      <c r="G35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36">
+        <v>0.83372044179783</v>
+      </c>
+      <c r="F36">
+        <v>0.796123752976162</v>
+      </c>
+      <c r="K36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37">
+        <v>0.83295446121914396</v>
+      </c>
+      <c r="F37">
+        <v>0.79531180930696399</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1402,85 +1537,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F6"/>
+  <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>0.83550559021557802</v>
+      </c>
+      <c r="D3">
+        <v>0.79658522996089298</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4">
-        <f>3634+1339</f>
-        <v>4973</v>
+        <v>0.83340539872753105</v>
       </c>
       <c r="D4">
-        <f>1531+2694</f>
-        <v>4225</v>
-      </c>
-      <c r="E4">
-        <f>721+4818</f>
-        <v>5539</v>
-      </c>
-      <c r="F4">
-        <f>SUM(C4:E4)</f>
-        <v>14737</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <f>2635+1797</f>
-        <v>4432</v>
-      </c>
-      <c r="D5">
-        <f>2029+4268</f>
-        <v>6297</v>
-      </c>
-      <c r="E5">
-        <f>658+2418</f>
-        <v>3076</v>
-      </c>
-      <c r="F5">
-        <f>SUM(C5:E5)</f>
-        <v>13805</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>26717</v>
-      </c>
-      <c r="D6">
-        <v>15734</v>
-      </c>
-      <c r="E6">
-        <v>38491</v>
+        <v>0.79402950794830596</v>
       </c>
     </row>
   </sheetData>

--- a/TABULAR/PS4E6/ps4e6_experiments.xlsx
+++ b/TABULAR/PS4E6/ps4e6_experiments.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="A2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1504,6 +1504,9 @@
       </c>
       <c r="D36">
         <v>0.83372044179783</v>
+      </c>
+      <c r="E36">
+        <v>0.83757999999999999</v>
       </c>
       <c r="F36">
         <v>0.796123752976162</v>
